--- a/py_fx_tools_dss/IMEX_to_DSS/xlsx_DSS_xlsx/Examples/13NodeIEEE/xlsx_files/BBDD_DSS_13nodeIEEE.xlsx
+++ b/py_fx_tools_dss/IMEX_to_DSS/xlsx_DSS_xlsx/Examples/13NodeIEEE/xlsx_files/BBDD_DSS_13nodeIEEE.xlsx
@@ -638,18 +638,10 @@
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V2" t="n">
-        <v>100</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3</v>
-      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
@@ -711,18 +703,10 @@
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V3" t="n">
-        <v>100</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3</v>
-      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
@@ -784,18 +768,10 @@
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V4" t="n">
-        <v>100</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3</v>
-      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
@@ -857,18 +833,10 @@
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V5" t="n">
-        <v>100</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
@@ -930,18 +898,10 @@
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V6" t="n">
-        <v>100</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
@@ -1003,18 +963,10 @@
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V7" t="n">
-        <v>100</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3</v>
-      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
@@ -1076,18 +1028,10 @@
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V8" t="n">
-        <v>100</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
@@ -1149,18 +1093,10 @@
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V9" t="n">
-        <v>100</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2</v>
-      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
@@ -1222,18 +1158,10 @@
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V10" t="n">
-        <v>100</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1</v>
-      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
@@ -1295,18 +1223,10 @@
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V11" t="n">
-        <v>100</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
@@ -1368,18 +1288,10 @@
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V12" t="n">
-        <v>100</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1</v>
-      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
@@ -1441,18 +1353,10 @@
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V13" t="n">
-        <v>100</v>
-      </c>
-      <c r="W13" t="n">
-        <v>3</v>
-      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
@@ -1514,18 +1418,10 @@
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V14" t="n">
-        <v>100</v>
-      </c>
-      <c r="W14" t="n">
-        <v>3</v>
-      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
@@ -1587,18 +1483,10 @@
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V15" t="n">
-        <v>100</v>
-      </c>
-      <c r="W15" t="n">
-        <v>3</v>
-      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
@@ -1660,18 +1548,10 @@
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V16" t="n">
-        <v>100</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1</v>
-      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
@@ -1733,18 +1613,10 @@
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V17" t="n">
-        <v>100</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1</v>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
@@ -1806,18 +1678,10 @@
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V18" t="n">
-        <v>100</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1</v>
-      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
@@ -1879,18 +1743,10 @@
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V19" t="n">
-        <v>100</v>
-      </c>
-      <c r="W19" t="n">
-        <v>3</v>
-      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
@@ -1952,18 +1808,10 @@
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V20" t="n">
-        <v>100</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3</v>
-      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
@@ -2025,18 +1873,10 @@
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V21" t="n">
-        <v>100</v>
-      </c>
-      <c r="W21" t="n">
-        <v>3</v>
-      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
@@ -2098,18 +1938,10 @@
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V22" t="n">
-        <v>100</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2</v>
-      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
@@ -2171,18 +2003,10 @@
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V23" t="n">
-        <v>100</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2</v>
-      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
@@ -2244,18 +2068,10 @@
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V24" t="n">
-        <v>100</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1</v>
-      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
@@ -2317,18 +2133,10 @@
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V25" t="n">
-        <v>100</v>
-      </c>
-      <c r="W25" t="n">
-        <v>3</v>
-      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
@@ -2390,18 +2198,10 @@
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V26" t="n">
-        <v>100</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1</v>
-      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
@@ -2463,18 +2263,10 @@
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V27" t="n">
-        <v>100</v>
-      </c>
-      <c r="W27" t="n">
-        <v>3</v>
-      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
@@ -2536,18 +2328,10 @@
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V28" t="n">
-        <v>100</v>
-      </c>
-      <c r="W28" t="n">
-        <v>3</v>
-      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="n">
@@ -2609,18 +2393,10 @@
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V29" t="n">
-        <v>100</v>
-      </c>
-      <c r="W29" t="n">
-        <v>3</v>
-      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="n">
@@ -2682,18 +2458,10 @@
       </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V30" t="n">
-        <v>100</v>
-      </c>
-      <c r="W30" t="n">
-        <v>3</v>
-      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
@@ -2759,18 +2527,10 @@
       </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V31" t="n">
-        <v>100</v>
-      </c>
-      <c r="W31" t="n">
-        <v>3</v>
-      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
@@ -2836,18 +2596,10 @@
       </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V32" t="n">
-        <v>100</v>
-      </c>
-      <c r="W32" t="n">
-        <v>3</v>
-      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
@@ -2913,18 +2665,10 @@
       </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V33" t="n">
-        <v>100</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2</v>
-      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
@@ -2990,18 +2734,10 @@
       </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V34" t="n">
-        <v>100</v>
-      </c>
-      <c r="W34" t="n">
-        <v>2</v>
-      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="n">
@@ -3067,18 +2803,10 @@
       </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V35" t="n">
-        <v>100</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1</v>
-      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
@@ -3144,18 +2872,10 @@
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V36" t="n">
-        <v>100</v>
-      </c>
-      <c r="W36" t="n">
-        <v>3</v>
-      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
@@ -3221,18 +2941,10 @@
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
-      <c r="T37" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="V37" t="n">
-        <v>100</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1</v>
-      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
@@ -3882,7 +3594,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |8.96400112449967E-306 0 8.96388973297299E-306]</t>
+          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |9.25079138393353E-306 0 9.25065913350863E-306]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4027,112 +3739,112 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>npts</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>interval</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mult</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>hour</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>stddev</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>csvfile</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>sngfile</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>dblfile</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>qmult</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>UseActual</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Pmax</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Qmax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>sinterval</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>minterval</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Pbase</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Qbase</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Pmult</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>PQCSVFile</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>MemoryMapping</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PQCSVFile</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Pbase</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Pmax</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Pmult</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Qbase</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Qmax</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>UseActual</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>action</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>csvfile</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>dblfile</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>hour</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>interval</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>like</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>minterval</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>mult</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>npts</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>qmult</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>sinterval</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>sngfile</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>stddev</t>
         </is>
       </c>
     </row>
@@ -4142,18 +3854,24 @@
           <t>default</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>[0.677 0.6256 0.6087 0.5833 0.58028 0.6025 0.657 0.7477 0.832 0.88 0.94 0.989 0.985 0.98 0.9898 0.999 1 0.958 0.936 0.913 0.876 0.876 0.828 0.756]</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.8258283333333341</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.15309160814381</v>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -4165,27 +3883,21 @@
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>0.8258283333333341</v>
+        <v>3600</v>
       </c>
       <c r="Q2" t="n">
         <v>60</v>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
         <is>
           <t>[0.677 0.6256 0.6087 0.5833 0.58028 0.6025 0.657 0.7477 0.832 0.88 0.94 0.989 0.985 0.98 0.9898 0.999 1 0.958 0.936 0.913 0.876 0.876 0.828 0.756]</t>
         </is>
       </c>
-      <c r="S2" t="n">
-        <v>24</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>3600</v>
-      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
-        <v>0.15309160814381</v>
-      </c>
+      <c r="W2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4214,37 +3926,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>npts</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mult</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>csvfile</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sngfile</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>dblfile</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>like</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>mult</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>npts</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>sngfile</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
         </is>
       </c>
     </row>
@@ -4254,23 +3966,23 @@
           <t>default</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[1 20]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>[1.025 1.025]</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[1 20]</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6316,177 +6028,177 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>bus1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>basekv</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>angle</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>phases</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>MVAsc3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MVAsc1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>x1r1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>x0r0</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Isc3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Isc1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>R1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>X1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>R0</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>X0</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ScanType</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Sequence</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>bus2</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Z1</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Z0</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Z2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>puZ1</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>puZ0</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>puZ2</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>baseMVA</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Yearly</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>Daily</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Duty</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Isc1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Isc3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MVAsc1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>MVAsc3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>R0</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>R1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ScanType</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Sequence</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>X0</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>X1</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Yearly</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Z0</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Z1</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Z2</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>angle</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>baseMVA</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>puZideal</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>spectrum</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>basefreq</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>basekv</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>bus1</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>bus2</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>enabled</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>like</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>phases</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>pu</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>puZ0</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>puZ1</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>puZ2</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>puZideal</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>spectrum</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>x0r0</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>x1r1</t>
         </is>
       </c>
     </row>
@@ -6496,131 +6208,131 @@
           <t>source</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sourcebus</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>115</v>
+      </c>
       <c r="D2" t="n">
+        <v>1.0001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>21000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100408.742467761</v>
+      </c>
+      <c r="M2" t="n">
         <v>105429.179591149</v>
       </c>
-      <c r="E2" t="n">
-        <v>100408.742467761</v>
-      </c>
-      <c r="F2" t="n">
-        <v>21000</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="N2" t="n">
+        <v>0.160376682055275</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.641506728221101</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.179603583012336</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.538810749037007</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Positive</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>sourcebus.0.0.0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>[0.160376682055275, 0.641506728221101]</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>[0.179603583012336, 0.538810749037007]</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>[0.160376682055275, 0.641506728221101]</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>[0.00121267812518166, 0.00485071250072666]</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>[0.0013580611191859, 0.00407418335755771]</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>[0.00121267812518166, 0.00485071250072666]</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>Thevenin</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>0.179603583012336</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.160376682055275</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>0.538810749037007</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.641506728221101</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.179603583012336, 0.538810749037007]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[0.160376682055275, 0.641506728221101]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.160376682055275, 0.641506728221101]</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>30</v>
-      </c>
-      <c r="T2" t="n">
-        <v>100</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>[1e-06, 0.001]</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>defaultvsource</t>
+        </is>
+      </c>
+      <c r="AH2" t="n">
         <v>60</v>
       </c>
-      <c r="V2" t="n">
-        <v>115</v>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>sourcebus</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>sourcebus.0.0.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Z2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.0001</v>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[0.0013580611191859, 0.00407418335755771]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[0.00121267812518166, 0.00485071250072666]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[0.00121267812518166, 0.00485071250072666]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>[1e-06, 0.001]</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>defaultvsource</t>
-        </is>
-      </c>
-      <c r="AI2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>4</v>
-      </c>
+      <c r="AJ2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/py_fx_tools_dss/IMEX_to_DSS/xlsx_DSS_xlsx/Examples/13NodeIEEE/xlsx_files/BBDD_DSS_13nodeIEEE.xlsx
+++ b/py_fx_tools_dss/IMEX_to_DSS/xlsx_DSS_xlsx/Examples/13NodeIEEE/xlsx_files/BBDD_DSS_13nodeIEEE.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="LineCode" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="LoadShape" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GrowthShape" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TCC_Curve" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Spectrum" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Line" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Vsource" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Load" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Transformer" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="RegControl" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Capacitor" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Voltagebases" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LoadShape" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="GrowthShape" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TCC_Curve" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Spectrum" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Line" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Vsource" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Load" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Transformer" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="RegControl" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Capacitor" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2969,6 +2970,1183 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:BF6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Id_Transformer</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>phases</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>windings</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>wdg</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>bus</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>conn</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>kV</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>kVA</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>tap</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>%R</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Rneut</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Xneut</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>buses</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>conns</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>kVs</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>kVAs</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>taps</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>XHL</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>XHT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>XLT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Xscarray</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>thermal</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>flrise</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>hsrise</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>%loadloss</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>%noloadloss</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>normhkVA</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>emerghkVA</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>MaxTap</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>MinTap</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>NumTaps</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>subname</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>%imag</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>ppm_antifloat</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>%Rs</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>bank</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>XfmrCode</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>XRConst</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>X12</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>X13</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>X23</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>LeadLag</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>WdgCurrents</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>RdcOhms</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Seasons</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Ratings</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>normamps</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>emergamps</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>faultrate</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>pctperm</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>repair</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>basefreq</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>650</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[sourcebus, 650.0]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[delta, wye]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[115.0, 4.16]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[5000.0, 5000.0]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[1.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>[0.008]</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
+        <v>5500</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7500</v>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>[0.0005, 0.0005]</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="n">
+        <v>4.90325333333333e-06</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>[1100.0]</t>
+        </is>
+      </c>
+      <c r="AY2" t="n">
+        <v>27.6124041786343</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>37.6532784254104</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="n">
+        <v>60</v>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>reg1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>rg60.1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1666</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.05625</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[650.1, rg60.1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[wye, wye]</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>[2.4, 2.4]</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>[1666.0, 1666.0]</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>[1.0, 1.05625]</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S3" t="n">
+        <v>35</v>
+      </c>
+      <c r="T3" t="n">
+        <v>30</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>[0.01]</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
+        <v>1832.6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>[0.005, 0.005]</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="n">
+        <v>0.000146938775510204</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>[1100.0]</t>
+        </is>
+      </c>
+      <c r="AY3" t="n">
+        <v>763.583333333333</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1041.25</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="n">
+        <v>60</v>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>reg2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>rg60.2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1666</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.0375</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[650.2, rg60.2]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[wye, wye]</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[2.4, 2.4]</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>[1666.0, 1666.0]</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>[1.0, 1.0375]</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S4" t="n">
+        <v>35</v>
+      </c>
+      <c r="T4" t="n">
+        <v>30</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>[0.01]</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>1832.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>[0.005, 0.005]</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="n">
+        <v>0.000146938775510204</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>[1100.0]</t>
+        </is>
+      </c>
+      <c r="AY4" t="n">
+        <v>763.583333333333</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1041.25</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="n">
+        <v>60</v>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>reg3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>rg60.3</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1666</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.05625</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[650.3, rg60.3]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[wye, wye]</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>[2.4, 2.4]</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>[1666.0, 1666.0]</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>[1.0, 1.05625]</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S5" t="n">
+        <v>35</v>
+      </c>
+      <c r="T5" t="n">
+        <v>30</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>[0.01]</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>1832.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>[0.005, 0.005]</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="n">
+        <v>0.000146938775510204</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>[1100.0]</t>
+        </is>
+      </c>
+      <c r="AY5" t="n">
+        <v>763.583333333333</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1041.25</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="n">
+        <v>60</v>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>xfm1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>634</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H6" t="n">
+        <v>500</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[633.0, 634.0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[wye, wye]</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>[4.16, 0.48]</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>[500.0, 500.0]</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>[1.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>[2.0]</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>550</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>750</v>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>[0.55, 0.55]</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>Lag</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="n">
+        <v>0.00071808</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>[1100.0]</t>
+        </is>
+      </c>
+      <c r="AY6" t="n">
+        <v>76.3323673207438</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>104.089591801014</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="n">
+        <v>60</v>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3434,7 +4612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3594,7 +4772,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |9.25079138393353E-306 0 9.25065913350863E-306]</t>
+          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |1.02752654315676E-305 0 1.02751510645009E-305]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3718,6 +4896,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Id_Voltagebases</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[115.0, 4.16, 0.48]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3878,23 +5089,13 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
-        <v>3600</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>60</v>
-      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>[0.677 0.6256 0.6087 0.5833 0.58028 0.6025 0.657 0.7477 0.832 0.88 0.94 0.989 0.985 0.98 0.9898 0.999 1 0.958 0.936 0.913 0.876 0.876 0.828 0.756]</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
@@ -3904,7 +5105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3989,7 +5190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4245,7 +5446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4482,7 +5683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4726,31 +5927,13 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[0.000065625 |0.0000295454545454545 0.0000639204545454546 |0.0000299242424242424 0.0000290719696969697 0.0000646590909090909]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.000192784090909091 |0.0000950189393939394 0.00019844696969697 |0.0000802272727272727 0.0000728977272727273 0.000195984848484848]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[0.00053030303030303 |-0.000113636363636364 0.00053030303030303 |-0.000113636363636364 -0.000113636363636364 0.00053030303030303]</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="S2" t="n">
-        <v>100</v>
-      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
@@ -4759,11 +5942,7 @@
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Deri</t>
-        </is>
-      </c>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
@@ -4783,23 +5962,11 @@
       <c r="AG2" t="n">
         <v>600</v>
       </c>
-      <c r="AH2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -4835,31 +6002,13 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.000065625 |0.0000295454545454545 0.0000639204545454546 |0.0000299242424242424 0.0000290719696969697 0.0000646590909090909]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.000192784090909091 |0.0000950189393939394 0.00019844696969697 |0.0000802272727272727 0.0000728977272727273 0.000195984848484848]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[0.00053030303030303 |-0.000113636363636364 0.00053030303030303 |-0.000113636363636364 -0.000113636363636364 0.00053030303030303]</t>
-        </is>
-      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="S3" t="n">
-        <v>100</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
@@ -4868,11 +6017,7 @@
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Deri</t>
-        </is>
-      </c>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
@@ -4892,23 +6037,11 @@
       <c r="AG3" t="n">
         <v>600</v>
       </c>
-      <c r="AH3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -4944,31 +6077,13 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[0.000065625 |0.0000295454545454545 0.0000639204545454546 |0.0000299242424242424 0.0000290719696969697 0.0000646590909090909]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[0.000192784090909091 |0.0000950189393939394 0.00019844696969697 |0.0000802272727272727 0.0000728977272727273 0.000195984848484848]</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[0.00053030303030303 |-0.000113636363636364 0.00053030303030303 |-0.000113636363636364 -0.000113636363636364 0.00053030303030303]</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="S4" t="n">
-        <v>100</v>
-      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
@@ -4977,11 +6092,7 @@
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Deri</t>
-        </is>
-      </c>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
@@ -5001,23 +6112,11 @@
       <c r="AG4" t="n">
         <v>600</v>
       </c>
-      <c r="AH4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -5053,31 +6152,13 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[0.000065625 |0.0000295454545454545 0.0000639204545454546 |0.0000299242424242424 0.0000290719696969697 0.0000646590909090909]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[0.000192784090909091 |0.0000950189393939394 0.00019844696969697 |0.0000802272727272727 0.0000728977272727273 0.000195984848484848]</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[0.00053030303030303 |-0.000113636363636364 0.00053030303030303 |-0.000113636363636364 -0.000113636363636364 0.00053030303030303]</t>
-        </is>
-      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="S5" t="n">
-        <v>100</v>
-      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
@@ -5086,11 +6167,7 @@
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Deri</t>
-        </is>
-      </c>
+      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
@@ -5110,23 +6187,11 @@
       <c r="AG5" t="n">
         <v>600</v>
       </c>
-      <c r="AH5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -5162,31 +6227,13 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>[0.000142537878787879 |0.0000299242424242424 0.00014157196969697 |0.0000295454545454545 0.0000290719696969697 0.000140833333333333]</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>[0.00022375 |0.0000802272727272727 0.000226950757575758 |0.0000950189393939394 0.0000728977272727273 0.000229393939393939]</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[0.00053030303030303 |-0.000113636363636364 0.00053030303030303 |-0.000113636363636364 -0.000113636363636364 0.00053030303030303]</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="S6" t="n">
-        <v>100</v>
-      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
@@ -5195,11 +6242,7 @@
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>Deri</t>
-        </is>
-      </c>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
@@ -5219,23 +6262,11 @@
       <c r="AG6" t="n">
         <v>600</v>
       </c>
-      <c r="AH6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -5271,31 +6302,13 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>[0.000250719696969697 |0.0000391287878787879 0.000251780303030303]</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>[0.000256988636363636 |0.0000869507575757576 0.000255132575757576]</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[0.00053030303030303 |-0.000113636363636364 0.00053030303030303]</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="S7" t="n">
-        <v>100</v>
-      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
@@ -5304,11 +6317,7 @@
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Deri</t>
-        </is>
-      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
@@ -5328,23 +6337,11 @@
       <c r="AG7" t="n">
         <v>600</v>
       </c>
-      <c r="AH7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -5380,31 +6377,13 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>[0.000250719696969697 |0.0000391287878787879 0.000251780303030303]</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>[0.000256988636363636 |0.0000869507575757576 0.000255132575757576]</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[0.00053030303030303 |-0.000113636363636364 0.00053030303030303]</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="S8" t="n">
-        <v>100</v>
-      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
@@ -5413,11 +6392,7 @@
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Deri</t>
-        </is>
-      </c>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
@@ -5437,23 +6412,11 @@
       <c r="AG8" t="n">
         <v>600</v>
       </c>
-      <c r="AH8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -5489,31 +6452,13 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>[0.000149947159090909 |0.0000603174242424242 0.000148039583333333 |0.0000536837121212121 0.0000603174242424242 0.000149947159090909]</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>[0.0000830212121212121 |5.24314393939394E-6 0.0000751320075757576 |-3.48871212121212E-6 5.24314393939394E-6 0.0000830212121212121]</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[0.0727174242424243 |0 0.0727174242424243 |0 0 0.0727174242424243]</t>
-        </is>
-      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="S9" t="n">
-        <v>100</v>
-      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
@@ -5522,11 +6467,7 @@
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>Deri</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
@@ -5546,23 +6487,11 @@
       <c r="AG9" t="n">
         <v>600</v>
       </c>
-      <c r="AH9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -5598,31 +6527,13 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>[0.000250719696969697 |0.0000391287878787879 0.000251780303030303]</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>[0.000256988636363636 |0.0000869507575757576 0.000255132575757576]</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[0.00053030303030303 |-0.000113636363636364 0.00053030303030303]</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="S10" t="n">
-        <v>100</v>
-      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
@@ -5631,11 +6542,7 @@
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Deri</t>
-        </is>
-      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
@@ -5655,23 +6562,11 @@
       <c r="AG10" t="n">
         <v>600</v>
       </c>
-      <c r="AH10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -5707,31 +6602,13 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>[0.000251742424242424]</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>[0.000255208333333333]</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[0.00053030303030303]</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="S11" t="n">
-        <v>100</v>
-      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
@@ -5740,11 +6617,7 @@
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>Deri</t>
-        </is>
-      </c>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
@@ -5764,23 +6637,11 @@
       <c r="AG11" t="n">
         <v>600</v>
       </c>
-      <c r="AH11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -5816,31 +6677,13 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>[0.000254261363636364]</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>[9.70454545454545e-05]</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[0.0446969696969697]</t>
-        </is>
-      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="S12" t="n">
-        <v>100</v>
-      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
@@ -5849,11 +6692,7 @@
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>Deri</t>
-        </is>
-      </c>
+      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
@@ -5873,23 +6712,11 @@
       <c r="AG12" t="n">
         <v>600</v>
       </c>
-      <c r="AH12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -5918,87 +6745,51 @@
       <c r="G13" t="n">
         <v>0.0001</v>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
       <c r="I13" t="n">
         <v>0.0001</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>[0.0001 |0 0.0001 |0 0 0.0001]</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>[0 |0 0 |0 0 0]</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[0 |0 0 |0 0 0]</t>
-        </is>
-      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="Q13" t="n">
-        <v>0.01805</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.155081</v>
-      </c>
-      <c r="S13" t="n">
-        <v>100</v>
-      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>Deri</t>
-        </is>
-      </c>
+      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>[400.0]</t>
-        </is>
-      </c>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="n">
-        <v>400</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
     </row>
   </sheetData>
@@ -6006,7 +6797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6222,116 +7013,44 @@
       <c r="E2" t="n">
         <v>30</v>
       </c>
-      <c r="F2" t="n">
-        <v>60</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>20000</v>
       </c>
       <c r="I2" t="n">
         <v>21000</v>
       </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>100408.742467761</v>
-      </c>
-      <c r="M2" t="n">
-        <v>105429.179591149</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.160376682055275</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.641506728221101</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.179603583012336</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.538810749037007</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Positive</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
           <t>sourcebus.0.0.0</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.160376682055275, 0.641506728221101]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[0.179603583012336, 0.538810749037007]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[0.160376682055275, 0.641506728221101]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[0.00121267812518166, 0.00485071250072666]</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[0.0013580611191859, 0.00407418335755771]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[0.00121267812518166, 0.00485071250072666]</t>
-        </is>
-      </c>
-      <c r="AA2" t="n">
-        <v>100</v>
-      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>Thevenin</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[1e-06, 0.001]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>defaultvsource</t>
-        </is>
-      </c>
-      <c r="AH2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
     </row>
   </sheetData>
@@ -6339,7 +7058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6381,97 +7100,97 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>kvar</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>kVA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>pf</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>yearly</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>daily</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>duty</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>growth</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>conn</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>kvar</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Rneut</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Xneut</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Vminpu</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Vmaxpu</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Vminnorm</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Vminemerg</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>xfkVA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>allocationfactor</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>kVA</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
@@ -6591,102 +7310,46 @@
         <v>1155</v>
       </c>
       <c r="F2" t="n">
-        <v>0.868243142124459</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>660</v>
-      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1330.27252846926</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2</v>
-      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="AI2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>defaultload</t>
-        </is>
-      </c>
-      <c r="AO2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -6710,102 +7373,46 @@
         <v>160</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8240419241993679</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>110</v>
-      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>194.164878389476</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2</v>
-      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="AI3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>defaultload</t>
-        </is>
-      </c>
-      <c r="AO3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -6829,102 +7436,46 @@
         <v>120</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>90</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2</v>
-      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="AI4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>defaultload</t>
-        </is>
-      </c>
-      <c r="AO4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -6948,102 +7499,46 @@
         <v>120</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>90</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
-      <c r="W5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2</v>
-      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="AI5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>defaultload</t>
-        </is>
-      </c>
-      <c r="AO5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -7067,102 +7562,46 @@
         <v>170</v>
       </c>
       <c r="F6" t="n">
-        <v>0.805651012649425</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>125</v>
-      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>211.009478460092</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>2</v>
-      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="AI6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>defaultload</t>
-        </is>
-      </c>
-      <c r="AO6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -7186,102 +7625,48 @@
         <v>230</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8673133941933719</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
         <is>
           <t>delta</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>132</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>265.186726666325</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>2</v>
-      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="AI7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>defaultload</t>
-        </is>
-      </c>
-      <c r="AO7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -7305,102 +7690,50 @@
         <v>170</v>
       </c>
       <c r="F8" t="n">
-        <v>0.747651914485831</v>
-      </c>
-      <c r="G8" t="n">
+        <v>151</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
         <is>
           <t>delta</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>151</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>227.378539004894</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>2</v>
-      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="AI8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>defaultload</t>
-        </is>
-      </c>
-      <c r="AO8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -7424,102 +7757,46 @@
         <v>485</v>
       </c>
       <c r="F9" t="n">
-        <v>0.931101085074803</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>190</v>
-      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>520.888663727672</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>2</v>
-      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="AI9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>defaultload</t>
-        </is>
-      </c>
-      <c r="AO9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -7543,102 +7820,46 @@
         <v>68</v>
       </c>
       <c r="F10" t="n">
-        <v>0.749837855365093</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>60</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>90.6862723900371</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>2</v>
-      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="AI10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>defaultload</t>
-        </is>
-      </c>
-      <c r="AO10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -7662,102 +7883,46 @@
         <v>290</v>
       </c>
       <c r="F11" t="n">
-        <v>0.807289101791829</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>212</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
-      <c r="W11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>359.226947764223</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>2</v>
-      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="AI11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>defaultload</t>
-        </is>
-      </c>
-      <c r="AO11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -7781,102 +7946,46 @@
         <v>170</v>
       </c>
       <c r="F12" t="n">
-        <v>0.904818702200994</v>
-      </c>
-      <c r="G12" t="n">
+        <v>80</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
         <v>5</v>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>80</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
-      <c r="W12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>187.882942280559</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>2</v>
-      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="AI12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>defaultload</t>
-        </is>
-      </c>
-      <c r="AO12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -7900,102 +8009,44 @@
         <v>128</v>
       </c>
       <c r="F13" t="n">
-        <v>0.830049599782593</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>86</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>154.20765220961</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>2</v>
-      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="AI13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>defaultload</t>
-        </is>
-      </c>
-      <c r="AO13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -8019,102 +8070,46 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>0.861934215157769</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>10</v>
-      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>19.723082923316</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>2</v>
-      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="AI14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>defaultload</t>
-        </is>
-      </c>
-      <c r="AO14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -8138,102 +8133,46 @@
         <v>66</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8666224568741689</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>38</v>
-      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
-      <c r="W15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>76.1577310586391</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>2</v>
-      </c>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="AI15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>defaultload</t>
-        </is>
-      </c>
-      <c r="AO15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -8257,1280 +8196,47 @@
         <v>117</v>
       </c>
       <c r="F16" t="n">
-        <v>0.864581849621869</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>68</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.05</v>
-      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
-      <c r="W16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>135.325533436968</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>2</v>
-      </c>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>4</v>
-      </c>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>[0 0 0 0 0 0 0]</t>
-        </is>
-      </c>
-      <c r="AI16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>defaultload</t>
-        </is>
-      </c>
-      <c r="AO16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:BF6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Id_Transformer</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>phases</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>windings</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>wdg</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>bus</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>conn</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>kV</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>kVA</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>tap</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>%R</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Rneut</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Xneut</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>buses</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>conns</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>kVs</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>kVAs</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>taps</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>XHL</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>XHT</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>XLT</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Xscarray</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>thermal</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>flrise</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>hsrise</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>%loadloss</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>%noloadloss</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>normhkVA</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>emerghkVA</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>MaxTap</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>MinTap</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>NumTaps</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>subname</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>%imag</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>ppm_antifloat</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>%Rs</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>bank</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>XfmrCode</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>XRConst</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>X12</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>X13</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>X23</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>LeadLag</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>WdgCurrents</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>RdcOhms</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Seasons</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Ratings</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>normamps</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>emergamps</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>faultrate</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>pctperm</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>repair</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>basefreq</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>enabled</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>like</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>650</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[sourcebus, 650.0]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[delta, wye]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[115.0, 4.16]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[5000.0, 5000.0]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0]</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4</v>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.008]</t>
-        </is>
-      </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="n">
-        <v>5500</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7500</v>
-      </c>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[0.0005, 0.0005]</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>Lag</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="n">
-        <v>4.90325333333333e-06</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>[1100.0]</t>
-        </is>
-      </c>
-      <c r="AY2" t="n">
-        <v>27.6124041786343</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>37.6532784254104</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>reg1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>rg60.1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1666</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.05625</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[650.1, rg60.1]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[wye, wye]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[2.4, 2.4]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[1666.0, 1666.0]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1.0, 1.05625]</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S3" t="n">
-        <v>35</v>
-      </c>
-      <c r="T3" t="n">
-        <v>30</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[0.01]</t>
-        </is>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="n">
-        <v>1832.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2499</v>
-      </c>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[0.005, 0.005]</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>Lag</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="n">
-        <v>0.000146938775510204</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>[1100.0]</t>
-        </is>
-      </c>
-      <c r="AY3" t="n">
-        <v>763.583333333333</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>1041.25</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BF3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>reg2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>rg60.2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1666</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.0375</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[650.2, rg60.2]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[wye, wye]</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[2.4, 2.4]</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>[1666.0, 1666.0]</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0375]</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S4" t="n">
-        <v>35</v>
-      </c>
-      <c r="T4" t="n">
-        <v>30</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>[0.01]</t>
-        </is>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="n">
-        <v>1832.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2499</v>
-      </c>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>[0.005, 0.005]</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>Lag</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="n">
-        <v>0.000146938775510204</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>[1100.0]</t>
-        </is>
-      </c>
-      <c r="AY4" t="n">
-        <v>763.583333333333</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>1041.25</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BF4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>reg3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>rg60.3</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1666</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.05625</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[650.3, rg60.3]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[wye, wye]</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[2.4, 2.4]</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>[1666.0, 1666.0]</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>[1.0, 1.05625]</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S5" t="n">
-        <v>35</v>
-      </c>
-      <c r="T5" t="n">
-        <v>30</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>[0.01]</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="n">
-        <v>1832.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2499</v>
-      </c>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>[0.005, 0.005]</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>Lag</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="n">
-        <v>0.000146938775510204</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>[1100.0]</t>
-        </is>
-      </c>
-      <c r="AY5" t="n">
-        <v>763.583333333333</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>1041.25</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BF5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>xfm1</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>634</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H6" t="n">
-        <v>500</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>[633.0, 634.0]</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>[wye, wye]</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[4.16, 0.48]</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>[500.0, 500.0]</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0]</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>[2.0]</t>
-        </is>
-      </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="n">
-        <v>550</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>750</v>
-      </c>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>[0.55, 0.55]</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>Lag</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="n">
-        <v>0.00071808</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>[1100.0]</t>
-        </is>
-      </c>
-      <c r="AY6" t="n">
-        <v>76.3323673207438</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>104.089591801014</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BF6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
